--- a/matriculas.xlsx
+++ b/matriculas.xlsx
@@ -1,34 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb30f56ceaeca81a/Documentos/GitHub/cartorio-automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_90547C9DDD5CDACFEB3B98154B5DCE3A67451A0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850D2769-DF37-4B9F-92F6-84C4ABCDB986}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>4204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"	CERTIDÃO DE INTEIRO TEOR
+CERTIFICO que atendendo ao requerimento do Sr.(a) , inscrito no CPF/MF sob o nº , conforme protocolo nº xxx, e assim, após ter procedido a competente busca nos Livros e Fichas de Registro de Imóveis deste Serviço Registral, deles verifiquei constar, que a matrícula nº 4.203  – Data:  04/05/1981 do Livro “2” possui o seguinte teor: – Livro 2-T – Folha 89
+Imóvel: Rua Getúlio Vargas – UM TERRENO, situado nesta cidade na Rua Getúlio Vargas, Bairro Tomé de Souza, com a frente para o sul, medindo 5,00m (cinco metros) de largura por 21,00m (vinte e um metros) de comprimento, formando uma área de 105,00m² (cento e cinco metros quadrados), contíguo de um lado com imóvel de José Estevam Filho, e do outro lado com imóvel de José Leocardino. Registro anterior nº 12.164, ás folhas 92 do livro 3-R em data de 16/10/1967. Proprietária: MARIA EVANGELISTA DE SOUZA, brasileira, solteira, maior, doméstica, domiciliada nesta cidade, portadora do CPF nº 333.344.124-15. O Oficial Substituto: João Alves Martins. 
+=============================================================
+Registro nº R-1- 4203, aos 04/05/81 – Por escritura pública de compra e venda, lavrada pelo Tabelião Substituto João Alves Martins, do 1º Oficio desta comarca, em data de 20/04/81, no livro nº 101, folhas 157 á 161v, foi o terreno acima descrito, pela quantia de Cr$ 15.000,00 (quinze mil cruzeiros), adquirido pela mesma MARIA EVANGELISTA DE SOUZA, brasileira, solteira, maior, doméstica, domiciliada nesta cidade, portadora do CPF nº 333.344.124-15, figurando como transmitente vendedor: Urbano Laudeiro Francisco, espanhol, viúvo, comerciante, residente e domiciliado na cidade de Feira de Santana, Estado da Bahia, portador do CPF nº 002.295.645-00. O Oficial Substituto: João Alves Martins. 
+=============================================================
+Registro nº R-2- 4203, aos 06/08/82 – Por escritura pública de compra e venda, lavrada pelo Tabelião Substituto João Alves Martins, do 1º Oficio desta comarca, em data de 27/07/82, no livro nº 108, folhas 185 á 186v, foi o terreno acima descrito, pela quantia de Cr$ 25.000,00 (vinte e cinco mil cruzeiros), adquirido por: GILBERTO ANACLETO DE SOUZA, brasileiro, solteiro, maior, tratorista, residente e domiciliado nesta cidade, portador do CPF nº 165.740.364-53, figurando como transmitente vendedora: Maria Evangelista de Souza, brasileira, solteira, maior, do lar doméstico, domiciliada e residente nesta cidade, portador do CPF nº 533.344.124-15. O Oficial Substituto: João Alves Martins. 
+=============================================================
+Registro nº R-3- 4203, aos 17/09/91 – Por escritura pública de compra e venda, lavrada pelo Tabelião João Alves Martins, do 1º Oficio desta comarca, em data de 17/09/91, no livro nº 180, ás folhas 36 á 36v, foi o imóvel acima descrito, pela quantia de Cr$ 73.500,00 (setenta e três mil e quinhentos cruzeiros), adquirido por: JOÃO VALDEVINO, brasileiro, casado, motorista, residente e domiciliado nesta cidade, portador do CPF nº 089.880.134-68, figurando como transmitente vendedor: Gilberto Anacleto de Souza, brasileiro, divorciado, residente e domiciliado nesta cidade, portador do CPF nº 165.740.364-53. O Oficial: João Alves Martins.
+============================================================= 
+CERTIFICO finalmente, que é tudo que contém na matrícula supramencionada O referido é verdade, dou fé. Para efeito de lavratura de atos notariais, a presente certidão é válida por 30 (trinta) dias, conforme item IV, art. 1º, do Decreto nº 93.240, de 09.09.1986.
+Serra Talhada, 13 de junho de 2024. 
+____________________________________
+DIEGO BORBA DE LEMOS E SILVA
+Oficial
+ "_x000D_
+</t>
+  </si>
+  <si>
+    <t>4205</t>
+  </si>
+  <si>
+    <t>4206</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>4208</t>
+  </si>
+  <si>
+    <t>4209</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>4211</t>
+  </si>
+  <si>
+    <t>4212</t>
+  </si>
+  <si>
+    <t>4213</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +105,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,122 +407,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>3301</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3302</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3303</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3304</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3305</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3306</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3307</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3308</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3309</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3310</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3311</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3312</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3313</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3314</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3315</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/matriculas.xlsx
+++ b/matriculas.xlsx
@@ -1,92 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb30f56ceaeca81a/Documentos/GitHub/cartorio-automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_90547C9DDD5CDACFEB3B98154B5DCE3A67451A0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850D2769-DF37-4B9F-92F6-84C4ABCDB986}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>4204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"	CERTIDÃO DE INTEIRO TEOR
-CERTIFICO que atendendo ao requerimento do Sr.(a) , inscrito no CPF/MF sob o nº , conforme protocolo nº xxx, e assim, após ter procedido a competente busca nos Livros e Fichas de Registro de Imóveis deste Serviço Registral, deles verifiquei constar, que a matrícula nº 4.203  – Data:  04/05/1981 do Livro “2” possui o seguinte teor: – Livro 2-T – Folha 89
-Imóvel: Rua Getúlio Vargas – UM TERRENO, situado nesta cidade na Rua Getúlio Vargas, Bairro Tomé de Souza, com a frente para o sul, medindo 5,00m (cinco metros) de largura por 21,00m (vinte e um metros) de comprimento, formando uma área de 105,00m² (cento e cinco metros quadrados), contíguo de um lado com imóvel de José Estevam Filho, e do outro lado com imóvel de José Leocardino. Registro anterior nº 12.164, ás folhas 92 do livro 3-R em data de 16/10/1967. Proprietária: MARIA EVANGELISTA DE SOUZA, brasileira, solteira, maior, doméstica, domiciliada nesta cidade, portadora do CPF nº 333.344.124-15. O Oficial Substituto: João Alves Martins. 
-=============================================================
-Registro nº R-1- 4203, aos 04/05/81 – Por escritura pública de compra e venda, lavrada pelo Tabelião Substituto João Alves Martins, do 1º Oficio desta comarca, em data de 20/04/81, no livro nº 101, folhas 157 á 161v, foi o terreno acima descrito, pela quantia de Cr$ 15.000,00 (quinze mil cruzeiros), adquirido pela mesma MARIA EVANGELISTA DE SOUZA, brasileira, solteira, maior, doméstica, domiciliada nesta cidade, portadora do CPF nº 333.344.124-15, figurando como transmitente vendedor: Urbano Laudeiro Francisco, espanhol, viúvo, comerciante, residente e domiciliado na cidade de Feira de Santana, Estado da Bahia, portador do CPF nº 002.295.645-00. O Oficial Substituto: João Alves Martins. 
-=============================================================
-Registro nº R-2- 4203, aos 06/08/82 – Por escritura pública de compra e venda, lavrada pelo Tabelião Substituto João Alves Martins, do 1º Oficio desta comarca, em data de 27/07/82, no livro nº 108, folhas 185 á 186v, foi o terreno acima descrito, pela quantia de Cr$ 25.000,00 (vinte e cinco mil cruzeiros), adquirido por: GILBERTO ANACLETO DE SOUZA, brasileiro, solteiro, maior, tratorista, residente e domiciliado nesta cidade, portador do CPF nº 165.740.364-53, figurando como transmitente vendedora: Maria Evangelista de Souza, brasileira, solteira, maior, do lar doméstico, domiciliada e residente nesta cidade, portador do CPF nº 533.344.124-15. O Oficial Substituto: João Alves Martins. 
-=============================================================
-Registro nº R-3- 4203, aos 17/09/91 – Por escritura pública de compra e venda, lavrada pelo Tabelião João Alves Martins, do 1º Oficio desta comarca, em data de 17/09/91, no livro nº 180, ás folhas 36 á 36v, foi o imóvel acima descrito, pela quantia de Cr$ 73.500,00 (setenta e três mil e quinhentos cruzeiros), adquirido por: JOÃO VALDEVINO, brasileiro, casado, motorista, residente e domiciliado nesta cidade, portador do CPF nº 089.880.134-68, figurando como transmitente vendedor: Gilberto Anacleto de Souza, brasileiro, divorciado, residente e domiciliado nesta cidade, portador do CPF nº 165.740.364-53. O Oficial: João Alves Martins.
-============================================================= 
-CERTIFICO finalmente, que é tudo que contém na matrícula supramencionada O referido é verdade, dou fé. Para efeito de lavratura de atos notariais, a presente certidão é válida por 30 (trinta) dias, conforme item IV, art. 1º, do Decreto nº 93.240, de 09.09.1986.
-Serra Talhada, 13 de junho de 2024. 
-____________________________________
-DIEGO BORBA DE LEMOS E SILVA
-Oficial
- "_x000D_
-</t>
-  </si>
-  <si>
-    <t>4205</t>
-  </si>
-  <si>
-    <t>4206</t>
-  </si>
-  <si>
-    <t>4207</t>
-  </si>
-  <si>
-    <t>4208</t>
-  </si>
-  <si>
-    <t>4209</t>
-  </si>
-  <si>
-    <t>4210</t>
-  </si>
-  <si>
-    <t>4211</t>
-  </si>
-  <si>
-    <t>4212</t>
-  </si>
-  <si>
-    <t>4213</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,93 +408,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3302</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
       </c>
     </row>
   </sheetData>
